--- a/aiurt-module-system/src/main/resources/templates/schedule.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28125" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1093,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AH1"/>
+      <selection activeCell="A5" sqref="$A5:$XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="21.3166666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
@@ -1390,9 +1390,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:1">
-      <c r="A5" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:AH1"/>
